--- a/firsttest.xlsx
+++ b/firsttest.xlsx
@@ -1,27 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C39992-4717-4C54-89A6-BD092AE61EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059B1700-2066-47CF-BF78-D3C8C43C7AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t>vo hoang trung</t>
+    <t>thanh</t>
   </si>
   <si>
-    <t>thanh</t>
+    <t>trung</t>
+  </si>
+  <si>
+    <t>phoebe</t>
+  </si>
+  <si>
+    <t>errick</t>
   </si>
 </sst>
 </file>
@@ -337,7 +356,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -345,26 +364,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>SUM(A2:A3)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
